--- a/docs/odh/shr-core-Substance-model.xlsx
+++ b/docs/odh/shr-core-Substance-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="78">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Substance-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Substance-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-Substance-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,39 +205,35 @@
     <t>shr-core-Substance-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
-    <t>shr-core-Substance-model.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
+    <t>shr-core-Substance-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-category</t>
+  </si>
+  <si>
+    <t>shr-core-Substance-model.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/substance-code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
-</t>
-  </si>
-  <si>
-    <t>shr-core-Substance-model.category</t>
-  </si>
-  <si>
-    <t>The type, kind, or class of this item.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-category</t>
   </si>
   <si>
     <t>shr-core-Substance-model.commentOrDescription</t>
@@ -254,14 +246,10 @@
     <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0947611
-</t>
-  </si>
-  <si>
     <t>shr-core-Substance-model.ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ingredient-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Ingredient-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -418,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -830,7 +818,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -862,7 +850,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -885,13 +873,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -942,7 +930,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -959,7 +947,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -982,13 +970,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1039,7 +1027,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1056,7 +1044,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1082,10 +1070,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1112,11 +1100,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1134,7 +1122,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1151,7 +1139,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1174,13 +1162,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1231,7 +1219,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1248,7 +1236,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1271,13 +1259,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1328,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1345,7 +1333,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1353,10 +1341,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>36</v>
@@ -1371,10 +1359,10 @@
         <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1401,14 +1389,14 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1423,13 +1411,13 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>36</v>
@@ -1440,7 +1428,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1448,10 +1436,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>36</v>
@@ -1466,10 +1454,10 @@
         <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1496,11 +1484,11 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>36</v>
@@ -1518,13 +1506,13 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>36</v>
@@ -1535,7 +1523,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1558,13 +1546,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1600,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1615,7 +1603,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1632,7 +1620,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1655,13 +1643,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1697,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1712,7 +1700,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
